--- a/Plano de Projeto/Cronograma Projeto.xlsx
+++ b/Plano de Projeto/Cronograma Projeto.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\PUC GO\Gerência de projetos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\PUC GO\Gerência de projetos\Plano de Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7D4625C9-24AD-4F6C-BE53-59166E85C619}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A311511F-50C2-4CEA-871C-BBD8404DC942}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26083" windowHeight="10786" tabRatio="988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>SPRINT</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>SPRINT 3</t>
-  </si>
-  <si>
-    <t>Gabriel, Lucas, Gabriela, Higor</t>
   </si>
   <si>
     <t>Gabriel, Gabriela, Higor</t>
@@ -129,28 +126,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -470,7 +467,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -497,95 +494,95 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="8">
         <v>43419</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="8">
         <v>43425</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="13.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" ht="13.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="0.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="8">
         <v>43426</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="8">
         <v>43432</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="9">
         <v>43433</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="9">
         <v>43439</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5">
         <v>43440</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="5">
         <v>43446</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>8</v>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
